--- a/biology/Histoire de la zoologie et de la botanique/Eleazar_Albin/Eleazar_Albin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eleazar_Albin/Eleazar_Albin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On ne connaît que peu de choses de la vie d’Eleazar Albin, sa date de naissance est inconnue et celle de sa mort, en 1741 ou 1742, n'est guère précise.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un spécialiste du pastel qui enseigne le dessin et la peinture. On ne connaît de lui que des illustrations d'ouvrages d'histoire naturelle. Il illustre de nombreux thèmes naturels comme les oiseaux, les insectes, les araignées ou les poissons.
 Son premier livre est A Natural History of English Insects dont la publication commence en 1714.
